--- a/Testcase/test_case_api.xlsx
+++ b/Testcase/test_case_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24045" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="interface" sheetId="1" state="visible" r:id="rId1"/>
@@ -648,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,11 +673,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -1057,23 +1060,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="18.625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="46.125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="26.75" customWidth="1" style="3" min="3" max="3"/>
-    <col width="24" customWidth="1" style="3" min="4" max="4"/>
-    <col width="49.125" customWidth="1" style="3" min="5" max="5"/>
-    <col width="64.375" customWidth="1" style="3" min="6" max="6"/>
-    <col width="84.125" customWidth="1" style="3" min="7" max="7"/>
-    <col width="12.75" customWidth="1" style="3" min="8" max="8"/>
-    <col width="9" customWidth="1" style="3" min="9" max="16384"/>
+    <col width="18.625" customWidth="1" style="3" min="1" max="2"/>
+    <col width="58.75" customWidth="1" style="3" min="3" max="3"/>
+    <col width="26.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="31.5" customWidth="1" style="3" min="5" max="5"/>
+    <col width="59.875" customWidth="1" style="3" min="6" max="6"/>
+    <col width="64.375" customWidth="1" style="3" min="7" max="7"/>
+    <col width="84.125" customWidth="1" style="3" min="8" max="9"/>
+    <col width="12.75" customWidth="1" style="3" min="10" max="10"/>
+    <col width="9" customWidth="1" style="3" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customFormat="1" customHeight="1" s="1">
@@ -1084,35 +1087,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1124,35 +1137,45 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>买家</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
           <t>api/rawProvide</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>买家_原料市场列表</t>
-        </is>
-      </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
+          <t>原料市场列表</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t>get</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>http://192.168.101.24:8090/api/rawProvide</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>{'pageNum': 1, 'pageSize': 10}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>{"code":200,"message":"操作成功"}</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1164,35 +1187,45 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>卖家</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
           <t>api/sendSms</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>卖家_发送登录验证码</t>
-        </is>
-      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>发送登录验证码</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>http://192.168.101.24:8070/api/sendSms</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"13500135000"}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{"code":200,"message":"操作成功","result":"验证码发送成功"}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"13500135003"}</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1204,75 +1237,295 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
+          <t>卖家</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
           <t>api/login</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>卖家_登录</t>
-        </is>
-      </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>http://192.168.101.24:8070/api/login</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>{"loginType":"1","phone": "13500135000","verifycode":666666}</t>
-        </is>
-      </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>{"code": 200,"message": "操作成功"}</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>failed</t>
+          <t>{"loginType":"1","phone": "13500135003","verifyCode":666666}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" s="10">
+    <row r="5" ht="27" customHeight="1" s="11">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
+          <t>买家</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
           <t>api/couponCenter</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>领券中心</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>http://192.168.101.24:8090/api/couponCenter</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>{"sourceType": 1,"couponType": 1,"pageSize": 9,"pageNum": 1}</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{"code": 200, "message": "操作成功"}</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>{"sourceType": 1,"couponType": 1,"pageSize": 10,"pageNum": 1}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>运营</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>api/sendSms</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>发送验证码</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8050/api/sendSms</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"13600136002"}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>运营</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>api/phoneLogin</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8050/api/phoneLogin</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{"code":666666,"phone":"13600136002"}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>运营</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>api/auditBasisIndemnity</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>违约金审核列表</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8050/api/auditBasisIndemnity</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{"pageSize": 10,"pageNum": 1}</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>卖家</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>/api/logout</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>退出登录</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8070/api/logout</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
@@ -1280,10 +1533,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" tooltip="http://192.168.101.24:8090/api/rawProvide" display="http://192.168.101.24:8090/api/rawProvide" r:id="rId1"/>
-    <hyperlink ref="E3" tooltip="http://192.168.101.24:8070/api/sendSms" display="http://192.168.101.24:8070/api/sendSms" r:id="rId2"/>
-    <hyperlink ref="E4" tooltip="http://192.168.101.24:8070/api/login" display="http://192.168.101.24:8070/api/login" r:id="rId3"/>
-    <hyperlink ref="E5" display="http://192.168.101.24:8090/api/couponCenter" r:id="rId4"/>
+    <hyperlink ref="F2" tooltip="http://192.168.101.24:8090/api/rawProvide" display="http://192.168.101.24:8090/api/rawProvide" r:id="rId1"/>
+    <hyperlink ref="F3" tooltip="http://192.168.101.24:8070/api/sendSms" display="http://192.168.101.24:8070/api/sendSms" r:id="rId2"/>
+    <hyperlink ref="F4" tooltip="http://192.168.101.24:8070/api/login" display="http://192.168.101.24:8070/api/login" r:id="rId3"/>
+    <hyperlink ref="F5" tooltip="http://192.168.101.24:8090/api/couponCenter" display="http://192.168.101.24:8090/api/couponCenter" r:id="rId4"/>
+    <hyperlink ref="F6" tooltip="http://192.168.101.24:8050/api/sendSms" display="http://192.168.101.24:8050/api/sendSms" r:id="rId5"/>
+    <hyperlink ref="F7" tooltip="http://192.168.101.24:8050/api/phoneLogin" display="http://192.168.101.24:8050/api/phoneLogin" r:id="rId6"/>
+    <hyperlink ref="F8" tooltip="http://192.168.101.24:8050/api/auditBasisIndemnity" display="http://192.168.101.24:8050/api/auditBasisIndemnity" r:id="rId7"/>
+    <hyperlink ref="F9" tooltip="http://192.168.101.24:8070/api/logout" display="http://192.168.101.24:8070/api/logout" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Testcase/test_case_api.xlsx
+++ b/Testcase/test_case_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="interface" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -68,6 +68,12 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -527,128 +533,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment vertical="center"/>
@@ -1060,10 +1069,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,7 +1186,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1236,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1286,11 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" s="11">
+    <row r="5" ht="27" customHeight="1" s="12">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1505,7 +1514,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>http://192.168.101.24:8070/api/logout</t>
         </is>
@@ -1525,9 +1534,104 @@
           <t>{"code":200,"message":"操作成功"}</t>
         </is>
       </c>
-      <c r="J9" s="0" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>买家</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>/tradeFloor/statistics</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>获取统计数据</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8090/api/tradeFloor/statistics</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>买家</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>/tradeFloor/mapSelectRaw</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>地图选料</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>http://192.168.101.24:8090/api/tradeFloor/mapSelectRaw</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>{'sign':None,"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"message":"操作成功"}</t>
         </is>
       </c>
     </row>
@@ -1541,6 +1645,8 @@
     <hyperlink ref="F7" tooltip="http://192.168.101.24:8050/api/phoneLogin" display="http://192.168.101.24:8050/api/phoneLogin" r:id="rId6"/>
     <hyperlink ref="F8" tooltip="http://192.168.101.24:8050/api/auditBasisIndemnity" display="http://192.168.101.24:8050/api/auditBasisIndemnity" r:id="rId7"/>
     <hyperlink ref="F9" tooltip="http://192.168.101.24:8070/api/logout" display="http://192.168.101.24:8070/api/logout" r:id="rId8"/>
+    <hyperlink ref="F10" tooltip="http://192.168.101.24:8090/api/tradeFloor/statistics" display="http://192.168.101.24:8090/api/tradeFloor/statistics" r:id="rId9"/>
+    <hyperlink ref="F11" display="http://192.168.101.24:8090/api/tradeFloor/mapSelectRaw" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Testcase/test_case_api.xlsx
+++ b/Testcase/test_case_api.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1632,6 +1632,11 @@
       <c r="I11" s="3" t="inlineStr">
         <is>
           <t>{"code":200,"message":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>

--- a/Testcase/test_case_api.xlsx
+++ b/Testcase/test_case_api.xlsx
@@ -1586,7 +1586,7 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1634,9 +1634,9 @@
           <t>{"code":200,"message":"操作成功"}</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>failed</t>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
